--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Vaniot/Eugène_Vaniot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Vaniot/Eugène_Vaniot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vaniot</t>
+          <t>Eugène_Vaniot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Vaniot (1846-1913) est un botaniste et religieux français.
 Avec Mgr Hector Léveillé, il a décrit plus de deux mille espèces de plantes. Il a été membre de l'Académie de géographie botanique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vaniot</t>
+          <t>Eugène_Vaniot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mollusques recueillis au sud d'Amiens, par le R.P.E. Vaniot... (1876-1877) - Amiens : impr. de Delattre-Lenoel , 1881 - Mémoires de la Société linnéenne du nord de la France", t. V, 1878-1883
 avec Mgr Hector Léveillé - Les Carex du Japon - Impr. de l'Institut de bibliographie de Paris, 1902
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vaniot</t>
+          <t>Eugène_Vaniot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un genre de la famille des scrophuliacées : Vaniotia H.Lév., lui a été dédié ainsi que les plantes suivantes :
 Aster vaniotii H.Lév. -(1912) - Astéracée de Chine (synonyme : Aster tricapitatus Vaniot)
